--- a/biology/Médecine/Paul_Bruère/Paul_Bruère.xlsx
+++ b/biology/Médecine/Paul_Bruère/Paul_Bruère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Bru%C3%A8re</t>
+          <t>Paul_Bruère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le colonel Paul Bruère (Pleumartin, 11 février 1876 - Paris 5e, 30 août 1950[1]) est un pharmacien des Armées français, reçu docteur en 1908. Collaborateur du Dr Antoine Balland (1845-1927), il a dirigé le Laboratoire de chimie alimentaire des Invalides. Fort des acquis de la Grande guerre, il a beaucoup écrit sur la défense passive et la protection contre la menace chimique. Ses travaux ont été couronnés du prix Montyon (1934).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le colonel Paul Bruère (Pleumartin, 11 février 1876 - Paris 5e, 30 août 1950) est un pharmacien des Armées français, reçu docteur en 1908. Collaborateur du Dr Antoine Balland (1845-1927), il a dirigé le Laboratoire de chimie alimentaire des Invalides. Fort des acquis de la Grande guerre, il a beaucoup écrit sur la défense passive et la protection contre la menace chimique. Ses travaux ont été couronnés du prix Montyon (1934).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Bru%C3%A8re</t>
+          <t>Paul_Bruère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paul Bruère, « I. Du rôle des Ions et des Micelles dans les phénomènes bio-chimiques . II, Du rôle des Acides aminés et des Vitamines dans les synthèses vitales », Presse medicale Hellénique (Société hellénique de dermatologie et de vénéréologie), Athènes,‎ août 1920
 Paul Bruère, L’Amélioration des Farines, 1931
